--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.15943604403334</v>
+        <v>25.38222733333333</v>
       </c>
       <c r="H2">
-        <v>3.15943604403334</v>
+        <v>76.146682</v>
       </c>
       <c r="I2">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="J2">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N2">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O2">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P2">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q2">
-        <v>284.3180297108335</v>
+        <v>3741.881855674975</v>
       </c>
       <c r="R2">
-        <v>284.3180297108335</v>
+        <v>33676.93670107477</v>
       </c>
       <c r="S2">
-        <v>0.02465076894370878</v>
+        <v>0.1674207799730943</v>
       </c>
       <c r="T2">
-        <v>0.02465076894370878</v>
+        <v>0.1674207799730943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.15943604403334</v>
+        <v>25.38222733333333</v>
       </c>
       <c r="H3">
-        <v>3.15943604403334</v>
+        <v>76.146682</v>
       </c>
       <c r="I3">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="J3">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P3">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q3">
-        <v>7.10246681966801</v>
+        <v>59.41442161588112</v>
       </c>
       <c r="R3">
-        <v>7.10246681966801</v>
+        <v>534.72979454293</v>
       </c>
       <c r="S3">
-        <v>0.0006157937598261397</v>
+        <v>0.002658343900808909</v>
       </c>
       <c r="T3">
-        <v>0.0006157937598261397</v>
+        <v>0.002658343900808909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.15943604403334</v>
+        <v>25.38222733333333</v>
       </c>
       <c r="H4">
-        <v>3.15943604403334</v>
+        <v>76.146682</v>
       </c>
       <c r="I4">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="J4">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N4">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O4">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P4">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q4">
-        <v>15.15986762743503</v>
+        <v>134.2601460146536</v>
       </c>
       <c r="R4">
-        <v>15.15986762743503</v>
+        <v>1208.341314131882</v>
       </c>
       <c r="S4">
-        <v>0.001314381625678775</v>
+        <v>0.006007121344834703</v>
       </c>
       <c r="T4">
-        <v>0.001314381625678775</v>
+        <v>0.006007121344834705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>94.7658205856882</v>
+        <v>94.773687</v>
       </c>
       <c r="H5">
-        <v>94.7658205856882</v>
+        <v>284.321061</v>
       </c>
       <c r="I5">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880592</v>
       </c>
       <c r="J5">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N5">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O5">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P5">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q5">
-        <v>8527.987595677658</v>
+        <v>13971.6635235946</v>
       </c>
       <c r="R5">
-        <v>8527.987595677658</v>
+        <v>125744.9717123514</v>
       </c>
       <c r="S5">
-        <v>0.7393883954164668</v>
+        <v>0.625125777580141</v>
       </c>
       <c r="T5">
-        <v>0.7393883954164668</v>
+        <v>0.6251257775801411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.7658205856882</v>
+        <v>94.773687</v>
       </c>
       <c r="H6">
-        <v>94.7658205856882</v>
+        <v>284.321061</v>
       </c>
       <c r="I6">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880592</v>
       </c>
       <c r="J6">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P6">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q6">
-        <v>213.0352021588064</v>
+        <v>221.845140836585</v>
       </c>
       <c r="R6">
-        <v>213.0352021588064</v>
+        <v>1996.606267529265</v>
       </c>
       <c r="S6">
-        <v>0.01847044856998363</v>
+        <v>0.00992588433965997</v>
       </c>
       <c r="T6">
-        <v>0.01847044856998363</v>
+        <v>0.009925884339659971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.7658205856882</v>
+        <v>94.773687</v>
       </c>
       <c r="H7">
-        <v>94.7658205856882</v>
+        <v>284.321061</v>
       </c>
       <c r="I7">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880592</v>
       </c>
       <c r="J7">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N7">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O7">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P7">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q7">
-        <v>454.7132069336898</v>
+        <v>501.308608100629</v>
       </c>
       <c r="R7">
-        <v>454.7132069336898</v>
+        <v>4511.777472905661</v>
       </c>
       <c r="S7">
-        <v>0.03942426799726842</v>
+        <v>0.0224297509682582</v>
       </c>
       <c r="T7">
-        <v>0.03942426799726842</v>
+        <v>0.02242975096825821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.9356839336644</v>
+        <v>23.99065033333333</v>
       </c>
       <c r="H8">
-        <v>20.9356839336644</v>
+        <v>71.971951</v>
       </c>
       <c r="I8">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="J8">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N8">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O8">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P8">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q8">
-        <v>1884.004715939552</v>
+        <v>3536.733715651962</v>
       </c>
       <c r="R8">
-        <v>1884.004715939552</v>
+        <v>31830.60344086766</v>
       </c>
       <c r="S8">
-        <v>0.1633458313871889</v>
+        <v>0.1582419595459895</v>
       </c>
       <c r="T8">
-        <v>0.1633458313871889</v>
+        <v>0.1582419595459895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.9356839336644</v>
+        <v>23.99065033333333</v>
       </c>
       <c r="H9">
-        <v>20.9356839336644</v>
+        <v>71.971951</v>
       </c>
       <c r="I9">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="J9">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P9">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q9">
-        <v>47.06377923576633</v>
+        <v>56.15703440934612</v>
       </c>
       <c r="R9">
-        <v>47.06377923576633</v>
+        <v>505.4133096841151</v>
       </c>
       <c r="S9">
-        <v>0.004080495172038641</v>
+        <v>0.002512600574903154</v>
       </c>
       <c r="T9">
-        <v>0.004080495172038641</v>
+        <v>0.002512600574903155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.9356839336644</v>
+        <v>23.99065033333333</v>
       </c>
       <c r="H10">
-        <v>20.9356839336644</v>
+        <v>71.971951</v>
       </c>
       <c r="I10">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="J10">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N10">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O10">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P10">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q10">
-        <v>100.4553321228177</v>
+        <v>126.8993526233946</v>
       </c>
       <c r="R10">
-        <v>100.4553321228177</v>
+        <v>1142.094173610551</v>
       </c>
       <c r="S10">
-        <v>0.008709617127839679</v>
+        <v>0.00567778177231015</v>
       </c>
       <c r="T10">
-        <v>0.008709617127839679</v>
+        <v>0.005677781772310152</v>
       </c>
     </row>
   </sheetData>
